--- a/Evaluation_Results/Final_TestFiles_22September_FewShotTest_Embeddings_Broad/ner_evaluation_results_gpt-5_1_shot.xlsx
+++ b/Evaluation_Results/Final_TestFiles_22September_FewShotTest_Embeddings_Broad/ner_evaluation_results_gpt-5_1_shot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD6"/>
+  <dimension ref="A1:AJ12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,6 +574,41 @@
           <t>Unnamed: 27</t>
         </is>
       </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 28</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 29</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 30</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 31</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 32</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 33</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 34</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -678,6 +713,24 @@
       <c r="AD2" t="n">
         <v>83</v>
       </c>
+      <c r="AE2" t="n">
+        <v>88</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>31</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1006,6 +1059,504 @@
         </is>
       </c>
       <c r="W6" t="inlineStr">
+        <is>
+          <t>0.001 kWh</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>296</v>
+      </c>
+      <c r="R7" t="n">
+        <v>297</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.9530257639304973</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>/home/s27mhusa_hpc/Master-Thesis/Evaluation_Results/Final_TestFiles_22September_FewShotTest_Embeddings_Broad/ner_evaluation_results_gpt-5_1_shot.txt</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>/home/s27mhusa_hpc/Master-Thesis/Evaluation_Results/Final_TestFiles_22September_FewShotTest_Embeddings_Broad/Stats/ner_evaluation_stats_gpt-5_1_shot.txt</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>4 MLGPU</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0.002 kWh</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>296</v>
+      </c>
+      <c r="R8" t="n">
+        <v>297</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.9530257639304973</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>/home/s27mhusa_hpc/Master-Thesis/Evaluation_Results/Final_TestFiles_22September_FewShotTest_Embeddings_Broad/ner_evaluation_results_gpt-5_1_shot.txt</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>/home/s27mhusa_hpc/Master-Thesis/Evaluation_Results/Final_TestFiles_22September_FewShotTest_Embeddings_Broad/Stats/ner_evaluation_stats_gpt-5_1_shot.txt</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>4 MLGPU</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0.001 kWh</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>296</v>
+      </c>
+      <c r="R9" t="n">
+        <v>297</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.9530257639304973</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>/home/s27mhusa_hpc/Master-Thesis/Evaluation_Results/Final_TestFiles_22September_FewShotTest_Embeddings_Broad/ner_evaluation_results_gpt-5_1_shot.txt</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>/home/s27mhusa_hpc/Master-Thesis/Evaluation_Results/Final_TestFiles_22September_FewShotTest_Embeddings_Broad/Stats/ner_evaluation_stats_gpt-5_1_shot.txt</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>4 MLGPU</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0.001 kWh</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>296</v>
+      </c>
+      <c r="R10" t="n">
+        <v>297</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.9530257639304973</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>/home/s27mhusa_hpc/Master-Thesis/Evaluation_Results/Final_TestFiles_22September_FewShotTest_Embeddings_Broad/ner_evaluation_results_gpt-5_1_shot.txt</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>/home/s27mhusa_hpc/Master-Thesis/Evaluation_Results/Final_TestFiles_22September_FewShotTest_Embeddings_Broad/Stats/ner_evaluation_stats_gpt-5_1_shot.txt</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>4 MLGPU</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0.001 kWh</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>297</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.9530257639304973</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>/home/s27mhusa_hpc/Master-Thesis/Evaluation_Results/Final_TestFiles_22September_FewShotTest_Embeddings_Broad/ner_evaluation_results_gpt-5_1_shot.txt</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>/home/s27mhusa_hpc/Master-Thesis/Evaluation_Results/Final_TestFiles_22September_FewShotTest_Embeddings_Broad/Stats/ner_evaluation_stats_gpt-5_1_shot.txt</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>4 MLGPU</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0.001 kWh</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>09/23/2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4787644787644788</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4175084175084175</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.4460431654676258</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.503171870658923</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.4244711545001325</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.4534086719504456</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.5180876704120415</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.4175084175084175</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.455113013974303</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.5627530364372469</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.486013986013986</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.5215759849906191</v>
+      </c>
+      <c r="O12" t="n">
+        <v>139</v>
+      </c>
+      <c r="P12" t="n">
+        <v>108</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>147</v>
+      </c>
+      <c r="R12" t="n">
+        <v>297</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.9485919712402636</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>/home/s27mhusa_hpc/Master-Thesis/Evaluation_Results/Final_TestFiles_22September_FewShotTest_Embeddings_Broad/ner_evaluation_results_gpt-5_1_shot.txt</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>/home/s27mhusa_hpc/Master-Thesis/Evaluation_Results/Final_TestFiles_22September_FewShotTest_Embeddings_Broad/Stats/ner_evaluation_stats_gpt-5_1_shot.txt</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>4 MLGPU</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
         <is>
           <t>0.001 kWh</t>
         </is>
